--- a/值班/2018年（03-04）夜班.xlsx
+++ b/值班/2018年（03-04）夜班.xlsx
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升级人：黄宝斌  升级人联系方式：17787019595</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>升级人：李传文 升级人联系方式：13529208708</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,10 @@
   </si>
   <si>
     <t>张云松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级人：黄宝斌  升级人联系方式：17787019595</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -885,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -987,15 +987,15 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
